--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFB9BC-2387-6848-AFCE-7EB4B0633438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26286322-467F-0A4A-9AFD-C4D5BF7FB820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -923,15 +923,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E75" sqref="B75:E79"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,7 +1208,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1273,8 +1275,16 @@
       <c r="E20" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f>_xlfn.CONCAT(B20,"-UNIT-A")</f>
+        <v>006SNC-UNIT-A</v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xlfn.CONCAT(B20,"-UNIT-B")</f>
+        <v>006SNC-UNIT-B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1290,8 +1300,16 @@
       <c r="E21" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" ref="F21:F79" si="0">_xlfn.CONCAT(B21,"-UNIT-A")</f>
+        <v>004URD-UNIT-A</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:G79" si="1">_xlfn.CONCAT(B21,"-UNIT-B")</f>
+        <v>004URD-UNIT-B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1307,8 +1325,16 @@
       <c r="E22" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>001DAG-UNIT-A</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>001DAG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1324,8 +1350,16 @@
       <c r="E23" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>049SLU-UNIT-A</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>049SLU-UNIT-B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1341,8 +1375,16 @@
       <c r="E24" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>024GAP-UNIT-A</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>024GAP-UNIT-B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1358,8 +1400,16 @@
       <c r="E25" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>002TAL-UNIT-A</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>002TAL-UNIT-B</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1375,8 +1425,16 @@
       <c r="E26" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>039TUG-UNIT-A</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>039TUG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1392,8 +1450,16 @@
       <c r="E27" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>069CAU-UNIT-A</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>069CAU-UNIT-B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1409,8 +1475,16 @@
       <c r="E28" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>038TAR-UNIT-A</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>038TAR-UNIT-B</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1426,8 +1500,16 @@
       <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>035CAP-UNIT-A</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>035CAP-UNIT-B</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1443,8 +1525,16 @@
       <c r="E30" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>010ANG-UNIT-A</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>010ANG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1460,8 +1550,16 @@
       <c r="E31" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>047GUA-UNIT-A</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>047GUA-UNIT-B</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1477,8 +1575,16 @@
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>046BLG-UNIT-A</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>046BLG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1494,8 +1600,16 @@
       <c r="E33" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>044MAL-UNIT-A</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>044MAL-UNIT-B</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1511,8 +1625,16 @@
       <c r="E34" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>033MEY-UNIT-A</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>033MEY-UNIT-B</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1528,8 +1650,16 @@
       <c r="E35" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>008VAL-UNIT-A</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>008VAL-UNIT-B</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1545,8 +1675,16 @@
       <c r="E36" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>013MAR-UNIT-A</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>013MAR-UNIT-B</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1562,8 +1700,16 @@
       <c r="E37" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>014BIN-UNIT-A</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>014BIN-UNIT-B</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1579,8 +1725,16 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>062QUE-UNIT-A</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>062QUE-UNIT-B</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1596,8 +1750,16 @@
       <c r="E39" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>026PSG-UNIT-A</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>026PSG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1613,8 +1775,16 @@
       <c r="E40" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>051PSY-UNIT-A</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>051PSY-UNIT-B</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1630,8 +1800,16 @@
       <c r="E41" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>048PRQ-UNIT-A</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>048PRQ-UNIT-B</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1647,8 +1825,16 @@
       <c r="E42" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>022BNN-UNIT-A</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>022BNN-UNIT-B</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1664,8 +1850,16 @@
       <c r="E43" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>007CAL-UNIT-A</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>007CAL-UNIT-B</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1681,8 +1875,16 @@
       <c r="E44" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>020IMU-UNIT-A</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>020IMU-UNIT-B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1698,8 +1900,16 @@
       <c r="E45" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>019DAS-UNIT-A</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>019DAS-UNIT-B</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1715,8 +1925,16 @@
       <c r="E46" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>017ROS-UNIT-A</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>017ROS-UNIT-B</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1732,8 +1950,16 @@
       <c r="E47" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>068TGY-UNIT-A</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>068TGY-UNIT-B</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1749,8 +1975,16 @@
       <c r="E48" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>050STC-UNIT-A</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>050STC-UNIT-B</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1766,8 +2000,16 @@
       <c r="E49" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>052SNP-UNIT-A</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>052SNP-UNIT-B</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1783,8 +2025,16 @@
       <c r="E50" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>042GUM-UNIT-A</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>042GUM-UNIT-B</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1800,8 +2050,16 @@
       <c r="E51" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>018LUC-UNIT-A</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>018LUC-UNIT-B</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1817,8 +2075,16 @@
       <c r="E52" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>037BAT-UNIT-A</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>037BAT-UNIT-B</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1834,8 +2100,16 @@
       <c r="E53" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>011LIP-UNIT-A</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>011LIP-UNIT-B</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1851,8 +2125,16 @@
       <c r="E54" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>040BLN-UNIT-A</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>040BLN-UNIT-B</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1868,8 +2150,16 @@
       <c r="E55" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>012PIN-UNIT-A</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>012PIN-UNIT-B</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1885,8 +2175,16 @@
       <c r="E56" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>023NAG-UNIT-A</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>023NAG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1902,8 +2200,16 @@
       <c r="E57" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>015DAE-UNIT-A</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>015DAE-UNIT-B</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1919,8 +2225,16 @@
       <c r="E58" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>034LEG-UNIT-A</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>034LEG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1936,8 +2250,16 @@
       <c r="E59" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>063IRI-UNIT-A</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>063IRI-UNIT-B</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1953,8 +2275,16 @@
       <c r="E60" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>053CEB-UNIT-A</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>053CEB-UNIT-B</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1970,8 +2300,16 @@
       <c r="E61" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>028LAP-UNIT-A</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>028LAP-UNIT-B</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1987,8 +2325,16 @@
       <c r="E62" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>045SIL-UNIT-A</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>045SIL-UNIT-B</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2004,8 +2350,16 @@
       <c r="E63" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>025KAB-UNIT-A</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>025KAB-UNIT-B</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2021,8 +2375,16 @@
       <c r="E64" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>041TAC-UNIT-A</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>041TAC-UNIT-B</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2038,8 +2400,16 @@
       <c r="E65" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>032ORM-UNIT-A</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>032ORM-UNIT-B</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2055,8 +2425,16 @@
       <c r="E66" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>009TAG-UNIT-A</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>009TAG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2072,8 +2450,16 @@
       <c r="E67" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>036BUT-UNIT-A</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>036BUT-UNIT-B</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2089,8 +2475,16 @@
       <c r="E68" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>005TGM-UNIT-A</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>005TGM-UNIT-B</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2106,8 +2500,16 @@
       <c r="E69" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>067ILI-UNIT-A</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>067ILI-UNIT-B</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2123,8 +2525,16 @@
       <c r="E70" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
+        <v>065SNF-UNIT-A</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>065SNF-UNIT-B</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2140,8 +2550,16 @@
       <c r="E71" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="str">
+        <f t="shared" si="0"/>
+        <v>016GSN-UNIT-A</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>016GSN-UNIT-B</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2157,8 +2575,16 @@
       <c r="E72" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="str">
+        <f t="shared" si="0"/>
+        <v>064KID-UNIT-A</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>064KID-UNIT-B</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2174,8 +2600,16 @@
       <c r="E73" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="str">
+        <f t="shared" si="0"/>
+        <v>061DAV-UNIT-A</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>061DAV-UNIT-B</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2191,8 +2625,16 @@
       <c r="E74" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="str">
+        <f t="shared" si="0"/>
+        <v>066DIG-UNIT-A</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>066DIG-UNIT-B</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2208,8 +2650,16 @@
       <c r="E75" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="str">
+        <f t="shared" si="0"/>
+        <v>051PSY-A101-UNIT-A</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>051PSY-A101-UNIT-B</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2225,8 +2675,16 @@
       <c r="E76" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="str">
+        <f t="shared" si="0"/>
+        <v>051PSY-A102-UNIT-A</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>051PSY-A102-UNIT-B</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2242,8 +2700,16 @@
       <c r="E77" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="str">
+        <f t="shared" si="0"/>
+        <v>051PSY-A103-UNIT-A</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>051PSY-A103-UNIT-B</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2259,8 +2725,16 @@
       <c r="E78" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="str">
+        <f t="shared" si="0"/>
+        <v>051PSY-A104-UNIT-A</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>051PSY-A104-UNIT-B</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2275,6 +2749,14 @@
       </c>
       <c r="E79" s="2" t="s">
         <v>163</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="0"/>
+        <v>051PSY-AO-UNIT-A</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>051PSY-AO-UNIT-B</v>
       </c>
     </row>
   </sheetData>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26286322-467F-0A4A-9AFD-C4D5BF7FB820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11611B9-9E74-0549-98F9-358DB6B48A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,7 +995,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>105</v>
@@ -1012,7 +1012,7 @@
         <v>108</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>104</v>
@@ -2650,14 +2650,6 @@
       <c r="E75" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F75" t="str">
-        <f t="shared" si="0"/>
-        <v>051PSY-A101-UNIT-A</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>051PSY-A101-UNIT-B</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -2675,14 +2667,6 @@
       <c r="E76" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="0"/>
-        <v>051PSY-A102-UNIT-A</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>051PSY-A102-UNIT-B</v>
-      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -2700,14 +2684,6 @@
       <c r="E77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="0"/>
-        <v>051PSY-A103-UNIT-A</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>051PSY-A103-UNIT-B</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -2725,14 +2701,6 @@
       <c r="E78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F78" t="str">
-        <f t="shared" si="0"/>
-        <v>051PSY-A104-UNIT-A</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>051PSY-A104-UNIT-B</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
@@ -2749,14 +2717,6 @@
       </c>
       <c r="E79" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="0"/>
-        <v>051PSY-AO-UNIT-A</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>051PSY-AO-UNIT-B</v>
       </c>
     </row>
   </sheetData>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11611B9-9E74-0549-98F9-358DB6B48A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C86964-1C5D-8148-90ED-D6741B0AA1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="270">
   <si>
     <t>010ANG</t>
   </si>
@@ -501,28 +501,346 @@
     <t>branch</t>
   </si>
   <si>
-    <t>051PSY-A101</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>051PSY-A102</t>
-  </si>
-  <si>
-    <t>051PSY-A103</t>
-  </si>
-  <si>
-    <t>051PSY-A104</t>
-  </si>
-  <si>
-    <t>051PSY-AO</t>
-  </si>
-  <si>
-    <t>ASHBEE MORGADO</t>
-  </si>
-  <si>
-    <t>officer</t>
+    <t>006SNC-UNIT-A</t>
+  </si>
+  <si>
+    <t>006SNC-UNIT-B</t>
+  </si>
+  <si>
+    <t>004URD-UNIT-A</t>
+  </si>
+  <si>
+    <t>004URD-UNIT-B</t>
+  </si>
+  <si>
+    <t>001DAG-UNIT-A</t>
+  </si>
+  <si>
+    <t>001DAG-UNIT-B</t>
+  </si>
+  <si>
+    <t>049SLU-UNIT-A</t>
+  </si>
+  <si>
+    <t>049SLU-UNIT-B</t>
+  </si>
+  <si>
+    <t>024GAP-UNIT-A</t>
+  </si>
+  <si>
+    <t>024GAP-UNIT-B</t>
+  </si>
+  <si>
+    <t>002TAL-UNIT-A</t>
+  </si>
+  <si>
+    <t>002TAL-UNIT-B</t>
+  </si>
+  <si>
+    <t>039TUG-UNIT-A</t>
+  </si>
+  <si>
+    <t>039TUG-UNIT-B</t>
+  </si>
+  <si>
+    <t>069CAU-UNIT-A</t>
+  </si>
+  <si>
+    <t>069CAU-UNIT-B</t>
+  </si>
+  <si>
+    <t>038TAR-UNIT-A</t>
+  </si>
+  <si>
+    <t>038TAR-UNIT-B</t>
+  </si>
+  <si>
+    <t>035CAP-UNIT-A</t>
+  </si>
+  <si>
+    <t>035CAP-UNIT-B</t>
+  </si>
+  <si>
+    <t>010ANG-UNIT-A</t>
+  </si>
+  <si>
+    <t>010ANG-UNIT-B</t>
+  </si>
+  <si>
+    <t>047GUA-UNIT-A</t>
+  </si>
+  <si>
+    <t>047GUA-UNIT-B</t>
+  </si>
+  <si>
+    <t>046BLG-UNIT-A</t>
+  </si>
+  <si>
+    <t>046BLG-UNIT-B</t>
+  </si>
+  <si>
+    <t>044MAL-UNIT-A</t>
+  </si>
+  <si>
+    <t>044MAL-UNIT-B</t>
+  </si>
+  <si>
+    <t>033MEY-UNIT-A</t>
+  </si>
+  <si>
+    <t>033MEY-UNIT-B</t>
+  </si>
+  <si>
+    <t>008VAL-UNIT-A</t>
+  </si>
+  <si>
+    <t>008VAL-UNIT-B</t>
+  </si>
+  <si>
+    <t>013MAR-UNIT-A</t>
+  </si>
+  <si>
+    <t>013MAR-UNIT-B</t>
+  </si>
+  <si>
+    <t>014BIN-UNIT-A</t>
+  </si>
+  <si>
+    <t>014BIN-UNIT-B</t>
+  </si>
+  <si>
+    <t>062QUE-UNIT-A</t>
+  </si>
+  <si>
+    <t>062QUE-UNIT-B</t>
+  </si>
+  <si>
+    <t>026PSG-UNIT-A</t>
+  </si>
+  <si>
+    <t>026PSG-UNIT-B</t>
+  </si>
+  <si>
+    <t>051PSY-UNIT-A</t>
+  </si>
+  <si>
+    <t>051PSY-UNIT-B</t>
+  </si>
+  <si>
+    <t>048PRQ-UNIT-A</t>
+  </si>
+  <si>
+    <t>048PRQ-UNIT-B</t>
+  </si>
+  <si>
+    <t>022BNN-UNIT-A</t>
+  </si>
+  <si>
+    <t>022BNN-UNIT-B</t>
+  </si>
+  <si>
+    <t>007CAL-UNIT-A</t>
+  </si>
+  <si>
+    <t>007CAL-UNIT-B</t>
+  </si>
+  <si>
+    <t>020IMU-UNIT-A</t>
+  </si>
+  <si>
+    <t>020IMU-UNIT-B</t>
+  </si>
+  <si>
+    <t>019DAS-UNIT-A</t>
+  </si>
+  <si>
+    <t>019DAS-UNIT-B</t>
+  </si>
+  <si>
+    <t>017ROS-UNIT-A</t>
+  </si>
+  <si>
+    <t>017ROS-UNIT-B</t>
+  </si>
+  <si>
+    <t>068TGY-UNIT-A</t>
+  </si>
+  <si>
+    <t>068TGY-UNIT-B</t>
+  </si>
+  <si>
+    <t>050STC-UNIT-A</t>
+  </si>
+  <si>
+    <t>050STC-UNIT-B</t>
+  </si>
+  <si>
+    <t>052SNP-UNIT-A</t>
+  </si>
+  <si>
+    <t>052SNP-UNIT-B</t>
+  </si>
+  <si>
+    <t>042GUM-UNIT-A</t>
+  </si>
+  <si>
+    <t>042GUM-UNIT-B</t>
+  </si>
+  <si>
+    <t>018LUC-UNIT-A</t>
+  </si>
+  <si>
+    <t>018LUC-UNIT-B</t>
+  </si>
+  <si>
+    <t>037BAT-UNIT-A</t>
+  </si>
+  <si>
+    <t>037BAT-UNIT-B</t>
+  </si>
+  <si>
+    <t>011LIP-UNIT-A</t>
+  </si>
+  <si>
+    <t>011LIP-UNIT-B</t>
+  </si>
+  <si>
+    <t>040BLN-UNIT-A</t>
+  </si>
+  <si>
+    <t>040BLN-UNIT-B</t>
+  </si>
+  <si>
+    <t>012PIN-UNIT-A</t>
+  </si>
+  <si>
+    <t>012PIN-UNIT-B</t>
+  </si>
+  <si>
+    <t>023NAG-UNIT-A</t>
+  </si>
+  <si>
+    <t>023NAG-UNIT-B</t>
+  </si>
+  <si>
+    <t>015DAE-UNIT-A</t>
+  </si>
+  <si>
+    <t>015DAE-UNIT-B</t>
+  </si>
+  <si>
+    <t>034LEG-UNIT-A</t>
+  </si>
+  <si>
+    <t>034LEG-UNIT-B</t>
+  </si>
+  <si>
+    <t>063IRI-UNIT-A</t>
+  </si>
+  <si>
+    <t>063IRI-UNIT-B</t>
+  </si>
+  <si>
+    <t>053CEB-UNIT-A</t>
+  </si>
+  <si>
+    <t>053CEB-UNIT-B</t>
+  </si>
+  <si>
+    <t>028LAP-UNIT-A</t>
+  </si>
+  <si>
+    <t>028LAP-UNIT-B</t>
+  </si>
+  <si>
+    <t>045SIL-UNIT-A</t>
+  </si>
+  <si>
+    <t>045SIL-UNIT-B</t>
+  </si>
+  <si>
+    <t>025KAB-UNIT-A</t>
+  </si>
+  <si>
+    <t>025KAB-UNIT-B</t>
+  </si>
+  <si>
+    <t>041TAC-UNIT-A</t>
+  </si>
+  <si>
+    <t>041TAC-UNIT-B</t>
+  </si>
+  <si>
+    <t>032ORM-UNIT-A</t>
+  </si>
+  <si>
+    <t>032ORM-UNIT-B</t>
+  </si>
+  <si>
+    <t>009TAG-UNIT-A</t>
+  </si>
+  <si>
+    <t>009TAG-UNIT-B</t>
+  </si>
+  <si>
+    <t>036BUT-UNIT-A</t>
+  </si>
+  <si>
+    <t>036BUT-UNIT-B</t>
+  </si>
+  <si>
+    <t>005TGM-UNIT-A</t>
+  </si>
+  <si>
+    <t>005TGM-UNIT-B</t>
+  </si>
+  <si>
+    <t>067ILI-UNIT-A</t>
+  </si>
+  <si>
+    <t>067ILI-UNIT-B</t>
+  </si>
+  <si>
+    <t>065SNF-UNIT-A</t>
+  </si>
+  <si>
+    <t>065SNF-UNIT-B</t>
+  </si>
+  <si>
+    <t>016GSN-UNIT-A</t>
+  </si>
+  <si>
+    <t>016GSN-UNIT-B</t>
+  </si>
+  <si>
+    <t>064KID-UNIT-A</t>
+  </si>
+  <si>
+    <t>064KID-UNIT-B</t>
+  </si>
+  <si>
+    <t>061DAV-UNIT-A</t>
+  </si>
+  <si>
+    <t>061DAV-UNIT-B</t>
+  </si>
+  <si>
+    <t>066DIG-UNIT-A</t>
+  </si>
+  <si>
+    <t>066DIG-UNIT-B</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NAME 2</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -604,10 +922,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,9 +1255,117 @@
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="19" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="16" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="19" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -953,7 +1382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -970,7 +1399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -987,7 +1416,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1004,7 +1433,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1021,7 +1450,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1038,7 +1467,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1055,7 +1484,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1072,7 +1501,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1089,7 +1518,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1106,7 +1535,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1123,7 +1552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1140,7 +1569,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1157,7 +1586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1174,7 +1603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1190,8 +1619,9 @@
       <c r="E15" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1208,7 +1638,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1225,7 +1655,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1242,7 +1672,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1258,8 +1688,17 @@
       <c r="E19" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1275,16 +1714,18 @@
       <c r="E20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F20" t="str">
-        <f>_xlfn.CONCAT(B20,"-UNIT-A")</f>
-        <v>006SNC-UNIT-A</v>
-      </c>
-      <c r="G20" t="str">
-        <f>_xlfn.CONCAT(B20,"-UNIT-B")</f>
-        <v>006SNC-UNIT-B</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>INDEX($A$2:$A$79,MATCH(LEFT(G20,6),$B$2:$B$79,0))</f>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1300,16 +1741,18 @@
       <c r="E21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" ref="F21:F79" si="0">_xlfn.CONCAT(B21,"-UNIT-A")</f>
-        <v>004URD-UNIT-A</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" ref="G21:G79" si="1">_xlfn.CONCAT(B21,"-UNIT-B")</f>
-        <v>004URD-UNIT-B</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" ref="F21:F79" si="0">INDEX($A$2:$A$79,MATCH(LEFT(G21,6),$B$2:$B$79,0))</f>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1325,16 +1768,18 @@
       <c r="E22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>001DAG-UNIT-A</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>001DAG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1350,16 +1795,18 @@
       <c r="E23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>049SLU-UNIT-A</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>049SLU-UNIT-B</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1375,16 +1822,18 @@
       <c r="E24" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>024GAP-UNIT-A</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>024GAP-UNIT-B</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1400,16 +1849,18 @@
       <c r="E25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>002TAL-UNIT-A</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>002TAL-UNIT-B</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1425,16 +1876,18 @@
       <c r="E26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>039TUG-UNIT-A</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>039TUG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1450,16 +1903,18 @@
       <c r="E27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>069CAU-UNIT-A</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>069CAU-UNIT-B</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1475,16 +1930,18 @@
       <c r="E28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>038TAR-UNIT-A</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>038TAR-UNIT-B</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1500,16 +1957,18 @@
       <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>035CAP-UNIT-A</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>035CAP-UNIT-B</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1525,16 +1984,18 @@
       <c r="E30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>010ANG-UNIT-A</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>010ANG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1550,16 +2011,18 @@
       <c r="E31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>047GUA-UNIT-A</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>047GUA-UNIT-B</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1575,16 +2038,18 @@
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>046BLG-UNIT-A</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>046BLG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1600,16 +2065,18 @@
       <c r="E33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>044MAL-UNIT-A</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>044MAL-UNIT-B</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1625,16 +2092,18 @@
       <c r="E34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>033MEY-UNIT-A</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>033MEY-UNIT-B</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1650,16 +2119,18 @@
       <c r="E35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>008VAL-UNIT-A</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>008VAL-UNIT-B</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1675,16 +2146,18 @@
       <c r="E36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>013MAR-UNIT-A</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>013MAR-UNIT-B</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1700,16 +2173,18 @@
       <c r="E37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>014BIN-UNIT-A</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>014BIN-UNIT-B</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1725,16 +2200,18 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>062QUE-UNIT-A</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>062QUE-UNIT-B</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1750,16 +2227,18 @@
       <c r="E39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>026PSG-UNIT-A</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>026PSG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1775,16 +2254,18 @@
       <c r="E40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>051PSY-UNIT-A</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>051PSY-UNIT-B</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1800,16 +2281,18 @@
       <c r="E41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>048PRQ-UNIT-A</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>048PRQ-UNIT-B</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1825,16 +2308,18 @@
       <c r="E42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>022BNN-UNIT-A</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>022BNN-UNIT-B</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1850,16 +2335,18 @@
       <c r="E43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>007CAL-UNIT-A</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>007CAL-UNIT-B</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1875,16 +2362,18 @@
       <c r="E44" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>020IMU-UNIT-A</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>020IMU-UNIT-B</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1900,16 +2389,18 @@
       <c r="E45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>019DAS-UNIT-A</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>019DAS-UNIT-B</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1925,16 +2416,18 @@
       <c r="E46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>017ROS-UNIT-A</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>017ROS-UNIT-B</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1950,16 +2443,18 @@
       <c r="E47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>068TGY-UNIT-A</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>068TGY-UNIT-B</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1975,16 +2470,18 @@
       <c r="E48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>050STC-UNIT-A</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>050STC-UNIT-B</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>212</v>
+      </c>
+      <c r="H48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2000,16 +2497,18 @@
       <c r="E49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>052SNP-UNIT-A</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>052SNP-UNIT-B</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2025,16 +2524,18 @@
       <c r="E50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>042GUM-UNIT-A</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>042GUM-UNIT-B</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2050,16 +2551,18 @@
       <c r="E51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>018LUC-UNIT-A</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>018LUC-UNIT-B</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2075,16 +2578,18 @@
       <c r="E52" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>037BAT-UNIT-A</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>037BAT-UNIT-B</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2100,16 +2605,18 @@
       <c r="E53" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>011LIP-UNIT-A</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>011LIP-UNIT-B</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>222</v>
+      </c>
+      <c r="H53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2125,16 +2632,18 @@
       <c r="E54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>040BLN-UNIT-A</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>040BLN-UNIT-B</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2150,16 +2659,18 @@
       <c r="E55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>012PIN-UNIT-A</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>012PIN-UNIT-B</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2175,16 +2686,18 @@
       <c r="E56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>023NAG-UNIT-A</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>023NAG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2200,16 +2713,18 @@
       <c r="E57" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>015DAE-UNIT-A</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>015DAE-UNIT-B</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2225,16 +2740,18 @@
       <c r="E58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>034LEG-UNIT-A</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>034LEG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2250,16 +2767,18 @@
       <c r="E59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>063IRI-UNIT-A</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>063IRI-UNIT-B</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>234</v>
+      </c>
+      <c r="H59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2275,16 +2794,18 @@
       <c r="E60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>053CEB-UNIT-A</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>053CEB-UNIT-B</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2300,16 +2821,18 @@
       <c r="E61" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>028LAP-UNIT-A</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>028LAP-UNIT-B</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2325,16 +2848,18 @@
       <c r="E62" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>045SIL-UNIT-A</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>045SIL-UNIT-B</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2350,16 +2875,18 @@
       <c r="E63" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>025KAB-UNIT-A</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v>025KAB-UNIT-B</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2375,16 +2902,18 @@
       <c r="E64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>041TAC-UNIT-A</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="1"/>
-        <v>041TAC-UNIT-B</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2400,16 +2929,18 @@
       <c r="E65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>032ORM-UNIT-A</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v>032ORM-UNIT-B</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2425,16 +2956,18 @@
       <c r="E66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>009TAG-UNIT-A</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="1"/>
-        <v>009TAG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>248</v>
+      </c>
+      <c r="H66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2450,16 +2983,18 @@
       <c r="E67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v>036BUT-UNIT-A</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="1"/>
-        <v>036BUT-UNIT-B</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>250</v>
+      </c>
+      <c r="H67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2475,16 +3010,18 @@
       <c r="E68" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F68" t="str">
-        <f t="shared" si="0"/>
-        <v>005TGM-UNIT-A</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>005TGM-UNIT-B</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>252</v>
+      </c>
+      <c r="H68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2500,16 +3037,18 @@
       <c r="E69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F69" t="str">
-        <f t="shared" si="0"/>
-        <v>067ILI-UNIT-A</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>067ILI-UNIT-B</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2525,16 +3064,18 @@
       <c r="E70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="0"/>
-        <v>065SNF-UNIT-A</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>065SNF-UNIT-B</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2550,16 +3091,18 @@
       <c r="E71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F71" t="str">
-        <f t="shared" si="0"/>
-        <v>016GSN-UNIT-A</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>016GSN-UNIT-B</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>258</v>
+      </c>
+      <c r="H71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2575,16 +3118,18 @@
       <c r="E72" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F72" t="str">
-        <f t="shared" si="0"/>
-        <v>064KID-UNIT-A</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>064KID-UNIT-B</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G72" t="s">
+        <v>260</v>
+      </c>
+      <c r="H72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2600,16 +3145,18 @@
       <c r="E73" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F73" t="str">
-        <f t="shared" si="0"/>
-        <v>061DAV-UNIT-A</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>061DAV-UNIT-B</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G73" t="s">
+        <v>262</v>
+      </c>
+      <c r="H73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2625,16 +3172,18 @@
       <c r="E74" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" si="0"/>
-        <v>066DIG-UNIT-A</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v>066DIG-UNIT-B</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>264</v>
+      </c>
+      <c r="H74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2642,16 +3191,16 @@
         <v>156</v>
       </c>
       <c r="C75" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2659,67 +3208,1853 @@
         <v>158</v>
       </c>
       <c r="C76" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="1">
+        <v>22</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="1">
+        <v>23</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="1">
+        <v>24</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="1">
+        <v>25</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="1">
+        <v>26</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="1">
+        <v>27</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="1">
+        <v>28</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="1">
+        <v>29</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="1">
+        <v>30</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="1">
+        <v>31</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="1">
+        <v>32</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="1">
+        <v>33</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="1">
+        <v>34</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="1">
+        <v>35</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="1">
+        <v>36</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="1">
+        <v>37</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="1">
+        <v>38</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="1">
+        <v>39</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="1">
+        <v>40</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="1">
+        <v>41</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="1">
+        <v>46</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="1">
+        <v>47</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="1">
+        <v>48</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="1">
+        <v>49</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="1">
+        <v>50</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="1">
+        <v>51</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="1">
+        <v>52</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="1">
+        <v>53</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="1">
+        <v>54</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="1">
+        <v>55</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="1">
+        <v>56</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1">
+        <v>57</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="1">
+        <v>58</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="1">
+        <v>59</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="1">
+        <v>60</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="1">
+        <v>61</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="1">
+        <v>62</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="1">
+        <v>63</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="1">
+        <v>64</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="1">
+        <v>65</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="1">
+        <v>66</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="1">
+        <v>67</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="1">
+        <v>68</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="1">
+        <v>69</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="1">
+        <v>70</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="1">
+        <v>71</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="1">
+        <v>72</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="1">
+        <v>73</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="1">
+        <v>19</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="1">
+        <v>20</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="1">
+        <v>21</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="1">
+        <v>22</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="1">
+        <v>23</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="1">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="1">
+        <v>25</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" s="1">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="1">
+        <v>27</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" s="1">
+        <v>28</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="1">
+        <v>29</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="1">
+        <v>30</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" s="1">
+        <v>31</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" s="1">
+        <v>32</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="1">
+        <v>33</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="1">
+        <v>34</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="1">
+        <v>35</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" s="1">
+        <v>36</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="1">
+        <v>37</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" s="1">
+        <v>38</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C150" s="1">
+        <v>39</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C151" s="1">
+        <v>40</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="1">
+        <v>41</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="1">
+        <v>42</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C157" s="1">
+        <v>46</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="1">
+        <v>47</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C159" s="1">
+        <v>48</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" s="1">
+        <v>49</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="C78" s="1">
-        <v>39</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="B161" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C161" s="1">
+        <v>50</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="C79" s="1">
-        <v>39</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="B162" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" s="1">
+        <v>51</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="B163" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" s="1">
+        <v>52</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" s="1">
+        <v>53</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" s="1">
+        <v>54</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C166" s="1">
+        <v>55</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C167" s="1">
+        <v>56</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C168" s="1">
+        <v>57</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="1">
+        <v>58</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170" s="1">
+        <v>59</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C171" s="1">
+        <v>60</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C172" s="1">
+        <v>61</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C173" s="1">
+        <v>62</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" s="1">
+        <v>63</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C175" s="1">
+        <v>64</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" s="1">
+        <v>65</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177" s="1">
+        <v>66</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" s="1">
+        <v>67</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179" s="1">
+        <v>68</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C180" s="1">
+        <v>69</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C181" s="1">
+        <v>70</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C182" s="1">
+        <v>71</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C183" s="1">
+        <v>72</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C184" s="1">
+        <v>73</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C86964-1C5D-8148-90ED-D6741B0AA1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735963E-BBE7-5940-AC9D-30C0868324DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1742,7 +1742,7 @@
         <v>155</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F79" si="0">INDEX($A$2:$A$79,MATCH(LEFT(G21,6),$B$2:$B$79,0))</f>
+        <f t="shared" ref="F21:F74" si="0">INDEX($A$2:$A$79,MATCH(LEFT(G21,6),$B$2:$B$79,0))</f>
         <v>20</v>
       </c>
       <c r="G21" t="s">

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735963E-BBE7-5940-AC9D-30C0868324DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7954C-BC25-ED4E-871E-0D8323BAC997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
@@ -1246,12 +1246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
   <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
@@ -1458,7 +1460,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>109</v>
@@ -1475,7 +1477,7 @@
         <v>114</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>111</v>
@@ -1492,7 +1494,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>141</v>
@@ -1509,7 +1511,7 @@
         <v>116</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>112</v>
@@ -1526,7 +1528,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>113</v>
@@ -1543,7 +1545,7 @@
         <v>132</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>122</v>
@@ -1560,7 +1562,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>123</v>
@@ -1577,7 +1579,7 @@
         <v>134</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>124</v>
@@ -1594,7 +1596,7 @@
         <v>135</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>125</v>
@@ -1611,7 +1613,7 @@
         <v>136</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>126</v>
@@ -1629,7 +1631,7 @@
         <v>137</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>127</v>
@@ -1646,7 +1648,7 @@
         <v>138</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>128</v>
@@ -1663,7 +1665,7 @@
         <v>139</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>129</v>
@@ -1680,7 +1682,7 @@
         <v>140</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>130</v>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7954C-BC25-ED4E-871E-0D8323BAC997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32221DA3-CBE0-7C41-A65E-04CA03B3C0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="277">
   <si>
     <t>010ANG</t>
   </si>
@@ -841,6 +835,27 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>001DAG-A101</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>001DAG-A102</t>
+  </si>
+  <si>
+    <t>001DAG-A103</t>
+  </si>
+  <si>
+    <t>001DAG-A104</t>
+  </si>
+  <si>
+    <t>001DAG-A105</t>
+  </si>
+  <si>
+    <t>001DAG-A106</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5055,6 +5070,108 @@
         <v>269</v>
       </c>
     </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C185" s="1">
+        <v>76</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C186" s="1">
+        <v>76</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C187" s="1">
+        <v>76</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C188" s="1">
+        <v>76</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" s="1">
+        <v>76</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" s="1">
+        <v>76</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
